--- a/biology/Médecine/Patrice_Debré/Patrice_Debré.xlsx
+++ b/biology/Médecine/Patrice_Debré/Patrice_Debré.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Patrice_Debr%C3%A9</t>
+          <t>Patrice_Debré</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Patrice Debré, né le 9 mai 1945 à Paris, est un médecin immunologiste et universitaire français, auteur d'ouvrages de biologie et également de plusieurs  biographies.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Patrice_Debr%C3%A9</t>
+          <t>Patrice_Debré</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Diplômé de la Harvard Medical School[1], Patrice Debré a pour domaines d'expertise l'immunologie, l'immunopathologie, l'immunogénétique, le cancer, le sida et les greffes[1].
-Il est professeur d'immunologie à l'université Pierre-et-Marie-Curie et membre de l'Académie nationale de médecine. Il a été chef de service et  directeur d'un institut de recherche en immunologie à l'hôpital de la Pitié-Salpêtrière, à Paris[1].
-Patrice Debré devient président du CIRAD en 2004[2], fonction qu'il occupe jusqu'en 2010, date à laquelle il est nommé ambassadeur de France chargé de la lutte contre le sida et les MST[1],[3].
-Il appartient à la famille Debré : il est le petit-fils du professeur Robert Debré et le fils du peintre Olivier Debré[4],[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diplômé de la Harvard Medical School, Patrice Debré a pour domaines d'expertise l'immunologie, l'immunopathologie, l'immunogénétique, le cancer, le sida et les greffes.
+Il est professeur d'immunologie à l'université Pierre-et-Marie-Curie et membre de l'Académie nationale de médecine. Il a été chef de service et  directeur d'un institut de recherche en immunologie à l'hôpital de la Pitié-Salpêtrière, à Paris.
+Patrice Debré devient président du CIRAD en 2004, fonction qu'il occupe jusqu'en 2010, date à laquelle il est nommé ambassadeur de France chargé de la lutte contre le sida et les MST,.
+Il appartient à la famille Debré : il est le petit-fils du professeur Robert Debré et le fils du peintre Olivier Debré,.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Patrice_Debr%C3%A9</t>
+          <t>Patrice_Debré</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Louis Pasteur, coll. « Grandes Biographies », éditions Flammarion, 1993, 562 p.
 Jacques Monod, coll. « Grandes Biographies », Flammarion, 1996  (ISBN 2-08-067173-1)
@@ -565,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Patrice_Debr%C3%A9</t>
+          <t>Patrice_Debré</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,10 +599,12 @@
           <t>Récompenses et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2007 :  Chevalier de la Légion d'honneur[1] ;
-1997 : Prix de la biographie (Académie française) pour son livre Jacques Monod[6] ;
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2007 :  Chevalier de la Légion d'honneur ;
+1997 : Prix de la biographie (Académie française) pour son livre Jacques Monod ;
 1994 : Grand prix Claude-Bernard de la Ville de Paris pour la recherche médicale ;
 1993 :  Chevalier de l'ordre national du Mérite ;
 1982 : Prix du Comité de Paris.</t>
